--- a/Little Red Riding hood/data/game data.xlsx
+++ b/Little Red Riding hood/data/game data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zooy2\Desktop\02\2DGP-Leedaehyun\202118215__2DGP_DRILL\Little Red Riding hood\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1299C91-624C-4162-BF7C-9AF7CEDC7EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032C4C48-FEFE-47B6-A0EE-C2F9FB1CA105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{6F3880A2-DFCC-41CC-B7FF-12C1F749213A}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="스탯" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,11 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
-  <si>
-    <t>리소스 수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>캐릭터 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,15 +49,6 @@
   </si>
   <si>
     <t>배경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동산
-호수
-숲
-꽃동산
-할머니집(외부/내부)
-스테이지 창</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,54 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요리 1
-갈비찜
--과일
--고기
--당근
--양념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요리 3
-국수
-- 육수
-- 면
-- 당근
-- 양념
-- 달걀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요리 2
-미역국
-- 육수
-- 미역
-- 고기
-- ?
-- ?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요리 4
-과일
-- 바나나
-- 사과
-- 딸기
-- 귤
-- 키위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요리 5
-- 아이스
-- 음료
-- 과자
-- ???
-- ???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 이펙트
 - 근접 공격
 - 원거리 공격</t>
@@ -507,6 +445,44 @@
   </si>
   <si>
     <t>대사 *대화문(글)로 대체 될 수도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">동산
+호수
+숲
+꽃동산
+할머니집(내부)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스테이지 창</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,8 +529,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +577,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -600,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,47 +614,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,6 +677,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -986,143 +1010,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>80</v>
+      <c r="F1" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
         <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1138,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0455AD9C-0B6A-431A-9FA3-1A51F398F118}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:J10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1154,164 +1178,156 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="68" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="102" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="119" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="12"/>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.45">
       <c r="A9" s="12"/>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A10" s="12"/>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1323,7 +1339,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1333,179 +1349,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7">
         <v>50</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7">
         <v>15</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
         <v>225</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="14"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="14"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="B8" s="2">
         <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1515,8 +1531,8 @@
       <c r="B14">
         <v>500</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
@@ -1526,8 +1542,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C15" s="4" t="s">
-        <v>31</v>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -1537,20 +1553,20 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C16" s="4" t="s">
-        <v>46</v>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C17" s="4" t="s">
-        <v>47</v>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
